--- a/数据整理/stocks/港股/01787-山东黄金.xlsx
+++ b/数据整理/stocks/港股/01787-山东黄金.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>006775</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>前海开源优质成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.77</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>006216</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>前海开源价值成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.77</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006216</t>
+          <t>006217</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合A</t>
+          <t>前海开源价值成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>46.24</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006217</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.24</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006775</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源优质成长混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.08</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>87.47</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01787-山东黄金.xlsx
+++ b/数据整理/stocks/港股/01787-山东黄金.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01787-山东黄金.xlsx
+++ b/数据整理/stocks/港股/01787-山东黄金.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01787-山东黄金.xlsx
+++ b/数据整理/stocks/港股/01787-山东黄金.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1015,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1121,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01787-山东黄金.xlsx
+++ b/数据整理/stocks/港股/01787-山东黄金.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>010707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1186,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1224,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010708</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01787-山东黄金.xlsx
+++ b/数据整理/stocks/港股/01787-山东黄金.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1509,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1631,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1647,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01787-山东黄金.xlsx
+++ b/数据整理/stocks/港股/01787-山东黄金.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>56.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2668</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1889</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0466</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
+      <c r="D7" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,35 +639,111 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.47</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1634</t>
+          <t>0.2387</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -796,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -847,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>003993</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>82.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -885,36 +847,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>010707</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>安信平稳合盈一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>20.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010708</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1111,36 +1263,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003993</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心驱动灵活配置混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1149,226 +1301,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010707</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信平稳合盈一年持有期混合A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010708</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信平稳合盈一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,7 +1365,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1433,111 +1395,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>87.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2387</t>
+          <t>0.1634</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1547</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003993</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1552,128 +1438,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.53</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01787-山东黄金.xlsx
+++ b/数据整理/stocks/港股/01787-山东黄金.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -583,6 +600,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +1015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1067,138 +1330,6 @@
       </c>
       <c r="H8" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>42.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1512</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>42.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1364,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1263,36 +1394,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>011834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>42.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.1512</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1301,36 +1432,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>011835</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>42.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1339,6 +1470,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1432,7 +1695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01787-山东黄金.xlsx
+++ b/数据整理/stocks/港股/01787-山东黄金.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.44</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -600,6 +617,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1330,138 +1859,6 @@
       </c>
       <c r="H8" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>42.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1512</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>42.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1526,36 +1923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>011834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>42.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.1512</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1564,36 +1961,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>011835</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>42.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1602,6 +1999,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1695,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
